--- a/media/Metaxlsx/總表更新0122test.xlsx
+++ b/media/Metaxlsx/總表更新0122test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="471">
   <si>
     <t>No</t>
   </si>
@@ -1427,9 +1427,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>NG</t>
   </si>
 </sst>
 </file>
@@ -1938,7 +1935,7 @@
         <v>43777</v>
       </c>
       <c r="P3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4" spans="1:16">
